--- a/assets/files/samples/travel_korean.xlsx
+++ b/assets/files/samples/travel_korean.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -570,9 +570,617 @@
         <v>I'm lost.</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>도와주세요.</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Help me.</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>경찰을 불러주세요.</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Please call the police.</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>병원에 가고 싶어요.</v>
+      </c>
+      <c r="B24" t="str">
+        <v>I want to go to the hospital.</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>약국이 어디 있나요?</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Where is the pharmacy?</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>화장실이 급해요.</v>
+      </c>
+      <c r="B26" t="str">
+        <v>I need to use the bathroom urgently.</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>가방을 잃어버렸어요.</v>
+      </c>
+      <c r="B27" t="str">
+        <v>I lost my bag.</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>지갑을 잃어버렸어요.</v>
+      </c>
+      <c r="B28" t="str">
+        <v>I lost my wallet.</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>여권을 잃어버렸어요.</v>
+      </c>
+      <c r="B29" t="str">
+        <v>I lost my passport.</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>대사관이 어디예요?</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Where is the embassy?</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>환전소는 어디예요?</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Where is the currency exchange?</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>ATM이 어디예요?</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Where is the ATM?</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>신용카드 되나요?</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Do you accept credit cards?</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>현금만 받나요?</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Do you only accept cash?</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>잔돈은 괜찮아요.</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Keep the change.</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>팁 포함인가요?</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Is tip included?</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>포장해 주세요.</v>
+      </c>
+      <c r="B37" t="str">
+        <v>To-go, please.</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>따로 계산할게요.</v>
+      </c>
+      <c r="B38" t="str">
+        <v>We will pay separately.</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>젓가락 주세요.</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Chopsticks please.</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>포크 주세요.</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Fork please.</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>냅킨 주세요.</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Napkin please.</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>리필 되나요?</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Is refill free?</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>너무 맛있어요.</v>
+      </c>
+      <c r="B43" t="str">
+        <v>It's very delicious.</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>짜요.</v>
+      </c>
+      <c r="B44" t="str">
+        <v>It's salty.</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>싱거워요.</v>
+      </c>
+      <c r="B45" t="str">
+        <v>It's bland.</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>달아요.</v>
+      </c>
+      <c r="B46" t="str">
+        <v>It's sweet.</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>매워요.</v>
+      </c>
+      <c r="B47" t="str">
+        <v>It's spicy.</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>셔요.</v>
+      </c>
+      <c r="B48" t="str">
+        <v>It's sour.</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>써요.</v>
+      </c>
+      <c r="B49" t="str">
+        <v>It's bitter.</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>알러지가 있어요.</v>
+      </c>
+      <c r="B50" t="str">
+        <v>I have an allergy.</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>고기는 빼주세요.</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Please remove meat.</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>채식주의자용 메뉴 있나요?</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Do you have vegetarian menu?</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>돼지고기 못 먹어요.</v>
+      </c>
+      <c r="B53" t="str">
+        <v>I can't eat pork.</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>소고기 못 먹어요.</v>
+      </c>
+      <c r="B54" t="str">
+        <v>I can't eat beef.</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>해산물 못 먹어요.</v>
+      </c>
+      <c r="B55" t="str">
+        <v>I can't eat seafood.</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>견과류 알러지 있어요.</v>
+      </c>
+      <c r="B56" t="str">
+        <v>I have nut allergy.</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>빈 방 있나요?</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Do you have vacant rooms?</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>1박에 얼마예요?</v>
+      </c>
+      <c r="B58" t="str">
+        <v>How much per night?</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>조식 포함인가요?</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Is breakfast included?</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>체크아웃 시간은 언제예요?</v>
+      </c>
+      <c r="B60" t="str">
+        <v>When is check-out time?</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>짐 맡길 수 있나요?</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Can I leave my luggage?</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>택시 잡아주세요.</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Please catch a taxi.</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>공항 버스 어디서 타요?</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Where can I take the airport bus?</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>기차역이 어디예요?</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Where is the train station?</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>버스 정류장이 어디예요?</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Where is the bus stop?</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>이 버스 시청 가나요?</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Does this bus go to City Hall?</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>내려주세요.</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Please let me off.</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>환승해야 하나요?</v>
+      </c>
+      <c r="B68" t="str">
+        <v>Do I need to transfer?</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>몇 호선 타야 해요?</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Which line should I take?</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>오른쪽.</v>
+      </c>
+      <c r="B70" t="str">
+        <v>Right.</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>왼쪽.</v>
+      </c>
+      <c r="B71" t="str">
+        <v>Left.</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>직진.</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Straight.</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>건너편.</v>
+      </c>
+      <c r="B73" t="str">
+        <v>Across the street.</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>근처에 편의점 있나요?</v>
+      </c>
+      <c r="B74" t="str">
+        <v>Is there a convenience store nearby?</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>슈퍼마켓 어디예요?</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Where is the supermarket?</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>기념품 가게 어디예요?</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Where is the souvenir shop?</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>면세점 어디예요?</v>
+      </c>
+      <c r="B77" t="str">
+        <v>Where is the duty-free shop?</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>세일 중인가요?</v>
+      </c>
+      <c r="B78" t="str">
+        <v>Is it on sale?</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>영업시간이 어떻게 되나요?</v>
+      </c>
+      <c r="B79" t="str">
+        <v>What are the business hours?</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>문 닫았나요?</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Is it closed?</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>언제 여나요?</v>
+      </c>
+      <c r="B81" t="str">
+        <v>When does it open?</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>입장료 얼마예요?</v>
+      </c>
+      <c r="B82" t="str">
+        <v>How much is the admission fee?</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>사진 찍어도 되나요?</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Can I take pictures?</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>플래시 터트려도 되나요?</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Can I use flash?</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>한국어 가이드 있나요?</v>
+      </c>
+      <c r="B85" t="str">
+        <v>Is there a Korean guide?</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>오디오 가이드 있나요?</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Is there an audio guide?</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>지도 있나요?</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Do you have a map?</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>추천 코스 있나요?</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Any recommended course?</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>걸어서 갈 수 있나요?</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Can I go on foot?</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>너무 멀어요.</v>
+      </c>
+      <c r="B90" t="str">
+        <v>It's too far.</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>가까워요.</v>
+      </c>
+      <c r="B91" t="str">
+        <v>It's close.</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>전화기 빌릴 수 있을까요?</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Can I borrow a phone?</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>충전기 빌릴 수 있을까요?</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Can I borrow a charger?</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>콘센트 어디 있나요?</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Where is the outlet?</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>비상구는 어디인가요?</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Where is the emergency exit?</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>소화기는 어디 있나요?</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Where is the fire extinguisher?</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>구급차 불러주세요.</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Call an ambulance.</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B97"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/files/samples/travel_korean.xlsx
+++ b/assets/files/samples/travel_korean.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1178,9 +1178,41 @@
         <v>Call an ambulance.</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>경찰 불러주세요.</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Call the police.</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>불이야!</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Fire!</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>도둑이야!</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Thief!</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>도와주세요!</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Help!</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B97"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B101"/>
   </ignoredErrors>
 </worksheet>
 </file>